--- a/ActiveUsersList.xlsx
+++ b/ActiveUsersList.xlsx
@@ -397,19 +397,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -417,25 +416,22 @@
         <v>userCount</v>
       </c>
       <c r="B1" t="str">
-        <v>delayMicros</v>
+        <v>oneStream_без_задержки</v>
       </c>
       <c r="C1" t="str">
-        <v>oneStream (ms)</v>
+        <v>oneStream_с_задержкой</v>
       </c>
       <c r="D1" t="str">
-        <v>parallelStreams (ms)</v>
+        <v>parallelStreams_без_задержки</v>
       </c>
       <c r="E1" t="str">
-        <v>customSpliterator (ms)</v>
+        <v>parallelStreams_с_задержкой</v>
       </c>
       <c r="F1" t="str">
-        <v>expectedDelayMs</v>
+        <v>customSpliterator_без_задержки</v>
       </c>
       <c r="G1" t="str">
-        <v>observedDelay_oneStream (ms)</v>
-      </c>
-      <c r="H1" t="str">
-        <v>overhead_oneStream (ms)</v>
+        <v>customSpliterator_с_задержкой</v>
       </c>
     </row>
     <row r="2">
@@ -443,25 +439,22 @@
         <v>3000</v>
       </c>
       <c r="B2" t="str">
-        <v>0</v>
+        <v>0,028</v>
       </c>
       <c r="C2" t="str">
-        <v>0.028</v>
+        <v>6,053</v>
       </c>
       <c r="D2" t="str">
-        <v>0.055</v>
+        <v>0,055</v>
       </c>
       <c r="E2" t="str">
-        <v>0.049</v>
+        <v>0,672</v>
       </c>
       <c r="F2" t="str">
-        <v>0.0</v>
+        <v>0,049</v>
       </c>
       <c r="G2" t="str">
-        <v>0.0</v>
-      </c>
-      <c r="H2" t="str">
-        <v>0.0</v>
+        <v>0,646</v>
       </c>
     </row>
     <row r="3">
@@ -469,25 +462,22 @@
         <v>5000</v>
       </c>
       <c r="B3" t="str">
-        <v>0</v>
+        <v>0,060</v>
       </c>
       <c r="C3" t="str">
-        <v>0.060</v>
+        <v>10,128</v>
       </c>
       <c r="D3" t="str">
-        <v>0.061</v>
+        <v>0,061</v>
       </c>
       <c r="E3" t="str">
-        <v>0.056</v>
+        <v>1,074</v>
       </c>
       <c r="F3" t="str">
-        <v>0.0</v>
+        <v>0,056</v>
       </c>
       <c r="G3" t="str">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="str">
-        <v>0.0</v>
+        <v>1,038</v>
       </c>
     </row>
     <row r="4">
@@ -495,25 +485,22 @@
         <v>50000</v>
       </c>
       <c r="B4" t="str">
-        <v>0</v>
+        <v>0,758</v>
       </c>
       <c r="C4" t="str">
-        <v>0.758</v>
+        <v>105,430</v>
       </c>
       <c r="D4" t="str">
-        <v>0.180</v>
+        <v>0,180</v>
       </c>
       <c r="E4" t="str">
-        <v>0.187</v>
+        <v>10,506</v>
       </c>
       <c r="F4" t="str">
-        <v>0.0</v>
+        <v>0,187</v>
       </c>
       <c r="G4" t="str">
-        <v>0.0</v>
-      </c>
-      <c r="H4" t="str">
-        <v>0.0</v>
+        <v>10,067</v>
       </c>
     </row>
     <row r="5">
@@ -521,134 +508,27 @@
         <v>250000</v>
       </c>
       <c r="B5" t="str">
-        <v>0</v>
+        <v>14,080</v>
       </c>
       <c r="C5" t="str">
-        <v>14.080</v>
+        <v>537,430</v>
       </c>
       <c r="D5" t="str">
-        <v>2.640</v>
+        <v>2,640</v>
       </c>
       <c r="E5" t="str">
-        <v>2.654</v>
+        <v>50,474</v>
       </c>
       <c r="F5" t="str">
-        <v>0.0</v>
+        <v>2,654</v>
       </c>
       <c r="G5" t="str">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="str">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>3000</v>
-      </c>
-      <c r="B6" t="str">
-        <v>2</v>
-      </c>
-      <c r="C6" t="str">
-        <v>6.053</v>
-      </c>
-      <c r="D6" t="str">
-        <v>0.672</v>
-      </c>
-      <c r="E6" t="str">
-        <v>0.646</v>
-      </c>
-      <c r="F6" t="str">
-        <v>6.0</v>
-      </c>
-      <c r="G6" t="str">
-        <v>6.025</v>
-      </c>
-      <c r="H6" t="str">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>5000</v>
-      </c>
-      <c r="B7" t="str">
-        <v>2</v>
-      </c>
-      <c r="C7" t="str">
-        <v>10.128</v>
-      </c>
-      <c r="D7" t="str">
-        <v>1.074</v>
-      </c>
-      <c r="E7" t="str">
-        <v>1.038</v>
-      </c>
-      <c r="F7" t="str">
-        <v>10.0</v>
-      </c>
-      <c r="G7" t="str">
-        <v>10.068</v>
-      </c>
-      <c r="H7" t="str">
-        <v>0.068</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>50000</v>
-      </c>
-      <c r="B8" t="str">
-        <v>2</v>
-      </c>
-      <c r="C8" t="str">
-        <v>105.430</v>
-      </c>
-      <c r="D8" t="str">
-        <v>10.506</v>
-      </c>
-      <c r="E8" t="str">
-        <v>10.067</v>
-      </c>
-      <c r="F8" t="str">
-        <v>100.0</v>
-      </c>
-      <c r="G8" t="str">
-        <v>104.672</v>
-      </c>
-      <c r="H8" t="str">
-        <v>4.672</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>250000</v>
-      </c>
-      <c r="B9" t="str">
-        <v>2</v>
-      </c>
-      <c r="C9" t="str">
-        <v>537.430</v>
-      </c>
-      <c r="D9" t="str">
-        <v>50.474</v>
-      </c>
-      <c r="E9" t="str">
-        <v>53.140</v>
-      </c>
-      <c r="F9" t="str">
-        <v>500.0</v>
-      </c>
-      <c r="G9" t="str">
-        <v>523.350</v>
-      </c>
-      <c r="H9" t="str">
-        <v>23.350</v>
+        <v>53,140</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>